--- a/ZohoCRM/testdata/ftcases.xlsx
+++ b/ZohoCRM/testdata/ftcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\git\ZohoCRM\ZohoCRM\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA62709-55EF-48AD-94C8-9E39048EB65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B5D608-A881-493B-8E56-1E42E057BAF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Mobile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CampaignName(Valid)</t>
   </si>
@@ -42,10 +39,7 @@
     <t>blank</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -405,7 +399,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,34 +410,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>123565</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
